--- a/biology/Zoologie/Chiasmocleis_anatipes/Chiasmocleis_anatipes.xlsx
+++ b/biology/Zoologie/Chiasmocleis_anatipes/Chiasmocleis_anatipes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis anatipes est une espèce d'amphibiens de la famille des Microhylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis anatipes est une espèce d'amphibiens de la famille des Microhylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce se rencontre entre 200 et 400 m d'altitude[2] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce se rencontre entre 200 et 400 m d'altitude :
 en Équateur dans les provinces de Sucumbíos et de Napo ;
 au Pérou dans la région de Loreto.
 Sa présence est incertaine en Colombie.
@@ -545,9 +559,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Chiasmocleis anatipes mesure environ 20 mm. Son dos varie du vert-olive au brun, avec ou sans taches dorées. Son ventre est blanc avec des marques brun foncé. Les têtards mesurent entre 30 et 33 mm dont 9 mm pour le corps. Leur coloration est fauve tirant sur le vert-olive dessus et blanc jaunâtre dessous[3].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chiasmocleis anatipes mesure environ 20 mm. Son dos varie du vert-olive au brun, avec ou sans taches dorées. Son ventre est blanc avec des marques brun foncé. Les têtards mesurent entre 30 et 33 mm dont 9 mm pour le corps. Leur coloration est fauve tirant sur le vert-olive dessus et blanc jaunâtre dessous.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom spécifique anatipes vient du latin anas, le canard, et de pes, le pied, en référence à la forte palmure des pieds de cette espèce qui lui donne l'air d'avoir des pieds de canard[3].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom spécifique anatipes vient du latin anas, le canard, et de pes, le pied, en référence à la forte palmure des pieds de cette espèce qui lui donne l'air d'avoir des pieds de canard.
 </t>
         </is>
       </c>
@@ -607,7 +625,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Walker &amp; Duellman, 1974 : Description of a new Species of Microhylid Frog, Chiasmocleis, from Ecuador. Occasional papers of the Natural History Museum, the University of Kansas, vol. 26, p. 1-6 (texte intégral).</t>
         </is>
